--- a/Dewatering_Haydees_formula_one_sheet.xlsx
+++ b/Dewatering_Haydees_formula_one_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dewatering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D6828B-3AA3-4ABF-BAFB-E8AEF3716D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928A756-5016-4630-AEB6-6A59FA9CA2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{E743245A-0047-4C07-A2C2-1B55E696AB5A}"/>
   </bookViews>
@@ -3291,8 +3291,8 @@
   </sheetPr>
   <dimension ref="A1:AZ109"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3915,11 +3915,11 @@
       </c>
       <c r="I12" s="42">
         <f>Y98</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="J12" s="43">
         <f>AN98</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>39</v>
@@ -4281,7 +4281,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="78">
-        <v>2.2046226218487759E-3</v>
+        <v>2.2046226218487802E-3</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>60</v>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="AJ23" s="92">
         <f>I12</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="AK23" s="93">
         <f>J12</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E33" s="121">
         <f t="shared" ref="E33:E38" si="1">(B33*D33*$B$20*C33)/($B$19*$B$27)</f>
-        <v>43.787612450428696</v>
+        <v>43.787612450428611</v>
       </c>
       <c r="F33" s="122">
         <v>45.12</v>
@@ -5012,8 +5012,8 @@
         <v>44.419999999999995</v>
       </c>
       <c r="I33" s="124">
-        <f t="shared" ref="I33:I38" si="2" xml:space="preserve"> (H33*$B$27*$B$19)/ (D33*$B$20*C33)</f>
-        <v>12.680526955622213</v>
+        <f xml:space="preserve"> (H33*$B$27*$B$19)/ (D33*$B$20*C33)</f>
+        <v>12.68052695562224</v>
       </c>
       <c r="J33" s="120">
         <v>454.65</v>
@@ -5031,7 +5031,7 @@
         <v>100</v>
       </c>
       <c r="O33" s="127">
-        <f t="shared" ref="O33:O35" si="3">L33-J33</f>
+        <f t="shared" ref="O33:O35" si="2">L33-J33</f>
         <v>136.79000000000008</v>
       </c>
       <c r="P33" s="121">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="E34" s="121">
         <f t="shared" si="1"/>
-        <v>52.520984947435849</v>
+        <v>52.520984947435743</v>
       </c>
       <c r="F34" s="120">
         <v>54.05</v>
@@ -5091,8 +5091,8 @@
         <v>53.3</v>
       </c>
       <c r="I34" s="124">
-        <f t="shared" si="2"/>
-        <v>15.222486798375112</v>
+        <f t="shared" ref="I33:I38" si="3" xml:space="preserve"> (H34*$B$27*$B$19)/ (D34*$B$20*C34)</f>
+        <v>15.22248679837514</v>
       </c>
       <c r="J34" s="120">
         <v>449.1</v>
@@ -5110,7 +5110,7 @@
         <v>100</v>
       </c>
       <c r="O34" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>141.14999999999998</v>
       </c>
       <c r="P34" s="121">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="E35" s="128">
         <f t="shared" si="1"/>
-        <v>59.50355294622522</v>
+        <v>59.503552946225099</v>
       </c>
       <c r="F35" s="120">
         <v>61.06</v>
@@ -5172,8 +5172,8 @@
         <v>60.24</v>
       </c>
       <c r="I35" s="124">
-        <f t="shared" si="2"/>
-        <v>17.210400880187535</v>
+        <f t="shared" si="3"/>
+        <v>17.210400880187567</v>
       </c>
       <c r="J35" s="120">
         <v>406.27</v>
@@ -5191,7 +5191,7 @@
         <v>100</v>
       </c>
       <c r="O35" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143.98000000000002</v>
       </c>
       <c r="P35" s="121">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E36" s="128">
         <f t="shared" si="1"/>
-        <v>66.533230931512833</v>
+        <v>66.533230931512705</v>
       </c>
       <c r="F36" s="120">
         <v>68.45</v>
@@ -5253,8 +5253,8 @@
         <v>67.64</v>
       </c>
       <c r="I36" s="124">
-        <f t="shared" si="2"/>
-        <v>19.316061793585558</v>
+        <f t="shared" si="3"/>
+        <v>19.316061793585593</v>
       </c>
       <c r="J36" s="120">
         <v>204.68</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="E37" s="121">
         <f t="shared" si="1"/>
-        <v>71.782984426928508</v>
+        <v>71.782984426928365</v>
       </c>
       <c r="F37" s="133">
         <v>73.63</v>
@@ -5334,8 +5334,8 @@
         <v>72.819999999999993</v>
       </c>
       <c r="I37" s="124">
-        <f t="shared" si="2"/>
-        <v>20.796154017803566</v>
+        <f t="shared" si="3"/>
+        <v>20.796154017803605</v>
       </c>
       <c r="J37" s="120">
         <v>205.9</v>
@@ -5383,7 +5383,7 @@
       <c r="AE37" s="27"/>
       <c r="AF37" s="134">
         <f>AI23-AK23</f>
-        <v>8.6346560587677459</v>
+        <v>8.6346560587677175</v>
       </c>
       <c r="AG37" s="105" t="s">
         <v>104</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="E38" s="121">
         <f t="shared" si="1"/>
-        <v>75.257503431128072</v>
+        <v>75.25750343112793</v>
       </c>
       <c r="F38" s="120">
         <v>77.28</v>
@@ -5418,8 +5418,8 @@
         <v>76.260000000000005</v>
       </c>
       <c r="I38" s="124">
-        <f t="shared" si="2"/>
-        <v>21.78639903329336</v>
+        <f t="shared" si="3"/>
+        <v>21.786399033293403</v>
       </c>
       <c r="J38" s="120">
         <v>159.41999999999999</v>
@@ -8425,7 +8425,7 @@
     <row r="98" spans="1:52" s="263" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="234">
         <f>I33</f>
-        <v>12.680526955622213</v>
+        <v>12.68052695562224</v>
       </c>
       <c r="B98" s="235" t="e">
         <f t="shared" ref="B98:B103" si="40">C42</f>
@@ -8492,7 +8492,7 @@
       <c r="U98" s="245"/>
       <c r="V98" s="244">
         <f>INDEX(A98:A104,MATCH(1,U98:U105,0))</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="W98" s="244">
         <f>INDEX(D98:D104,MATCH(1,U98:U104,0))</f>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="Y98" s="243">
         <f>IF(AB98=1,INDEX(A98:A102,MATCH(1,AX98:AX102,0)),V98)</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="Z98" s="243">
         <f>IF(AB98=1,INDEX(D98:D102,MATCH(1,AX98:AX102,0)),W98)</f>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="AG98" s="251">
         <f>IF(INDEX(A98:A104,MATCH(3,AF98:AF105,0))&gt;V98,V98,INDEX(A98:A104,MATCH(3,AF98:AF105,0)))</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="AH98" s="251">
         <f>IF(INDEX(A98:A105,MATCH(3,AF98:AF105,0))&gt;V98,W98,INDEX(D98:D105,MATCH(3,AF98:AF105,0)))</f>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="AN98" s="255">
         <f>IF(AQ98=1,INDEX(A98:A102,MATCH(1,AY98:AY102,0)),AG98)</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="AO98" s="254">
         <f>IF(AQ98=1,INDEX(D98:D102,MATCH(1,AY98:AY102,0)),AH98)</f>
@@ -8600,7 +8600,7 @@
     <row r="99" spans="1:52" s="263" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="234">
         <f>I34</f>
-        <v>15.222486798375112</v>
+        <v>15.22248679837514</v>
       </c>
       <c r="B99" s="235" t="e">
         <f t="shared" si="40"/>
@@ -8706,7 +8706,7 @@
     <row r="100" spans="1:52" s="263" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="234">
         <f>I35</f>
-        <v>17.210400880187535</v>
+        <v>17.210400880187567</v>
       </c>
       <c r="B100" s="235" t="e">
         <f t="shared" si="40"/>
@@ -8812,7 +8812,7 @@
     <row r="101" spans="1:52" s="263" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="234">
         <f>I36</f>
-        <v>19.316061793585558</v>
+        <v>19.316061793585593</v>
       </c>
       <c r="B101" s="235" t="e">
         <f t="shared" si="40"/>
@@ -8915,7 +8915,7 @@
     <row r="102" spans="1:52" s="263" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="234">
         <f>I37</f>
-        <v>20.796154017803566</v>
+        <v>20.796154017803605</v>
       </c>
       <c r="B102" s="235" t="e">
         <f t="shared" si="40"/>
@@ -9018,7 +9018,7 @@
     <row r="103" spans="1:52" s="263" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="234">
         <f>I38</f>
-        <v>21.78639903329336</v>
+        <v>21.786399033293403</v>
       </c>
       <c r="B103" s="235">
         <f t="shared" si="40"/>
